--- a/data/Saxo_Transactions_example.xlsx
+++ b/data/Saxo_Transactions_example.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26228"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8409B61B-9D40-4837-BB3C-2910C534D726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09093A6C-BC51-4929-8095-4F622F0B0C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Handelsdato</t>
   </si>
@@ -45,13 +45,19 @@
     <t>Bogført beløb</t>
   </si>
   <si>
+    <t>20-Mar-2023</t>
+  </si>
+  <si>
+    <t>Handel</t>
+  </si>
+  <si>
+    <t>Danske Inv Global Indeks KL DKK D</t>
+  </si>
+  <si>
+    <t>Salg 100 @ 93.79</t>
+  </si>
+  <si>
     <t>08-Feb-2022</t>
-  </si>
-  <si>
-    <t>Handel</t>
-  </si>
-  <si>
-    <t>Danske Inv Global Indeks KL DKK D</t>
   </si>
   <si>
     <t>Køb 20 @ 91.7</t>
@@ -426,11 +432,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -461,7 +467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="12.75">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -475,55 +481,71 @@
         <v>8</v>
       </c>
       <c r="E2" s="1">
-        <v>-1835.83</v>
+        <v>9369.1200000000008</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="12.75">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1">
-        <v>2500</v>
+        <v>-1835.83</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="12.75">
       <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="12.75">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1">
         <v>-12330.78</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:5" ht="12.75">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1">
         <v>12500</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="12.75"/>
     <row r="7" spans="1:5" ht="12.75"/>
     <row r="8" spans="1:5" ht="12.75"/>
     <row r="9" spans="1:5" ht="12.75"/>
@@ -607,6 +629,10 @@
     <row r="87" ht="12.75"/>
     <row r="88" ht="12.75"/>
     <row r="89" ht="12.75"/>
+    <row r="90" ht="12.75"/>
+    <row r="91" ht="12.75"/>
+    <row r="92" ht="12.75"/>
+    <row r="93" ht="12.75"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <tableParts count="1">
